--- a/biology/Zoologie/Accenteur_à_gorge_noire/Accenteur_à_gorge_noire.xlsx
+++ b/biology/Zoologie/Accenteur_à_gorge_noire/Accenteur_à_gorge_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_gorge_noire</t>
+          <t>Accenteur_à_gorge_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Accenteur à gorge noire (Prunella atrogularis) est une petite espèce de passereau de la famille des Prunellidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_gorge_noire</t>
+          <t>Accenteur_à_gorge_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une taille d'environ 14 à 15 cm pour un poids de 19 g, comme l'Accenteur mouchet, il a le dos brun foncé rayé un peu comme les moineaux. Les adultes ont la gorge, la tête et la crête noires et les sourcils blancs. Leur poitrine est orangée et leur ventre est blanc rayé d'orange.
 Les oiseaux des deux sexes se ressemblent, mais ils sont moins contrastés quand ils sont jeunes et en période internuptiale. La gorge noire peut notamment être complètement absente chez les jeunes oiseaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_gorge_noire</t>
+          <t>Accenteur_à_gorge_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Accenteur à gorge noire est représenté par deux sous-espèces :
 P. a. atrogularis : Oural ;
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_gorge_noire</t>
+          <t>Accenteur_à_gorge_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres accenteurs, cet oiseau est essentiellement insectivore. Il consomme notamment des collemboles, des lépidoptères, des coléoptères et des hémiptères. Parmi les autres invertébrés entrant dans le régime alimentaire figurent des araignées, des acariens, des lombrics et des escargots.
 L'Accenteur à gorge noire se nourrit aussi des graines surtout en hiver.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_gorge_noire</t>
+          <t>Accenteur_à_gorge_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se reproduit de mai à août. Elle effectue deux nichées, voire trois. Contrairement à l'Accenteur mouchet, elle est monogame. Elle construit un nid dans les broussailles des épicéas où la femelle pond de 3 à 5 œufs bleus non tachés.
 </t>
